--- a/proposed_projects.xlsx
+++ b/proposed_projects.xlsx
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="A2:F3"/>
+      <selection activeCell="A2" sqref="A2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -458,25 +458,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>гавкаем</t>
+          <t>уоклшупк</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>malo</t>
+          <t>Иванов</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>halo</t>
+          <t>Иван</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Группа не указана</t>
+          <t>4315</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>1008919333</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>7918574921</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>халоо</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Иванов</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4319</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>1008919333</t>
         </is>
